--- a/public/excels/exports/a123-export.xlsx
+++ b/public/excels/exports/a123-export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>HÓA ĐƠN VẬN CHUYỂN</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Mã cont</t>
+  </si>
+  <si>
+    <t>W-XA067-300920-2</t>
+  </si>
+  <si>
+    <t>XA067</t>
+  </si>
+  <si>
+    <t>チョーヤ 梅酒 紀州 720ml</t>
   </si>
   <si>
     <t>W-PQ051-311019-311037</t>
@@ -1072,11 +1081,11 @@
       </c>
       <c r="M5" s="53">
         <f>IF(I24&gt;(J24*350),I24,J24)</f>
-        <v>0</v>
+        <v>14278572</v>
       </c>
       <c r="N5" s="56">
         <f>L5*M5</f>
-        <v>0</v>
+        <v>448755120000</v>
       </c>
       <c r="O5" s="18"/>
     </row>
@@ -1245,7 +1254,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="8">
         <f>N5</f>
-        <v>0</v>
+        <v>448755120000</v>
       </c>
       <c r="O13" s="18"/>
     </row>
@@ -1449,11 +1458,11 @@
       <c r="H24" s="57"/>
       <c r="I24" s="26">
         <f>SUM(I26:I27)</f>
-        <v>0</v>
+        <v>14278572</v>
       </c>
       <c r="J24" s="26">
         <f>SUM(J26:J27)</f>
-        <v>0</v>
+        <v>0.077112</v>
       </c>
       <c r="K24" s="58" t="s">
         <v>29</v>
@@ -1521,55 +1530,81 @@
       <c r="C26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="20">
+        <v>4905846111261</v>
+      </c>
+      <c r="E26" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="66" t="s">
-        <v>48</v>
-      </c>
       <c r="F26" s="19">
-        <v>2</v>
+        <v>1071</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19">
+        <v>12852</v>
+      </c>
+      <c r="I26" s="19">
+        <v>14278572.0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0.077112</v>
+      </c>
+      <c r="K26" s="19">
+        <v>3</v>
+      </c>
+      <c r="L26" s="19">
+        <v>1</v>
+      </c>
+      <c r="M26" s="19">
         <v>2</v>
       </c>
-      <c r="I26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="19">
-        <v>0</v>
-      </c>
-      <c r="K26" s="19">
-        <v>0</v>
-      </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
-      <c r="M26" s="19">
-        <v>0</v>
-      </c>
       <c r="N26" s="19">
-        <v>0.0</v>
+        <v>1111.0</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" s="24" customFormat="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="19">
+        <v>2</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2</v>
+      </c>
       <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="H27" s="19">
+        <v>2</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <v>0.0</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="23"/>
     </row>
@@ -2448,7 +2483,7 @@
     </row>
     <row r="23" spans="1:16" customHeight="1" ht="28.95" s="12" customFormat="1">
       <c r="A23" s="62" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -2491,16 +2526,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="24" customFormat="1">
